--- a/attendance-files/MR/MR-A (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-A (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="163">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Madhu.D</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
   <si>
     <t>2024PGP257</t>
@@ -1623,11 +1626,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1644,10 +1647,18 @@
       <c r="K7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="L7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
@@ -1677,11 +1688,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>21</v>
@@ -1698,10 +1709,18 @@
       <c r="K8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="L8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
@@ -1731,11 +1750,11 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>20</v>
@@ -1752,10 +1771,18 @@
       <c r="K9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
+      <c r="L9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
@@ -1785,11 +1812,11 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>21</v>
@@ -1806,10 +1833,18 @@
       <c r="K10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
+      <c r="L10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
@@ -1839,11 +1874,11 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>20</v>
@@ -1860,10 +1895,18 @@
       <c r="K11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
+      <c r="L11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
@@ -1893,11 +1936,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>21</v>
@@ -1914,10 +1957,18 @@
       <c r="K12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
+      <c r="L12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
@@ -1947,11 +1998,11 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>21</v>
@@ -1968,10 +2019,18 @@
       <c r="K13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
+      <c r="L13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
@@ -2005,7 +2064,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>21</v>
@@ -2022,10 +2081,18 @@
       <c r="K14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
+      <c r="L14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
@@ -2055,11 +2122,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>21</v>
@@ -2076,10 +2143,18 @@
       <c r="K15" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
+      <c r="L15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
@@ -2113,7 +2188,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>21</v>
@@ -2130,10 +2205,18 @@
       <c r="K16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
+      <c r="L16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
@@ -2153,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>9</v>
@@ -2167,7 +2250,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>21</v>
@@ -2184,10 +2267,18 @@
       <c r="K17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="L17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
@@ -2207,21 +2298,21 @@
         <v>12</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>21</v>
@@ -2238,10 +2329,18 @@
       <c r="K18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="L18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
@@ -2261,21 +2360,21 @@
         <v>13</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>21</v>
@@ -2292,10 +2391,18 @@
       <c r="K19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
+      <c r="L19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P19" s="38"/>
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
@@ -2315,21 +2422,21 @@
         <v>14</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>21</v>
@@ -2346,10 +2453,18 @@
       <c r="K20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
+      <c r="L20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
@@ -2369,21 +2484,21 @@
         <v>15</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>21</v>
@@ -2400,10 +2515,18 @@
       <c r="K21" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
+      <c r="L21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
@@ -2423,10 +2546,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>9</v>
@@ -2437,7 +2560,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>21</v>
@@ -2454,10 +2577,18 @@
       <c r="K22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
+      <c r="L22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
@@ -2477,21 +2608,21 @@
         <v>17</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>21</v>
@@ -2508,10 +2639,18 @@
       <c r="K23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
+      <c r="L23" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
@@ -2531,21 +2670,21 @@
         <v>18</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>21</v>
@@ -2562,10 +2701,18 @@
       <c r="K24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
+      <c r="L24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
@@ -2585,10 +2732,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>9</v>
@@ -2599,7 +2746,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>21</v>
@@ -2616,10 +2763,18 @@
       <c r="K25" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
+      <c r="L25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
@@ -2639,10 +2794,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>9</v>
@@ -2653,7 +2808,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>21</v>
@@ -2670,10 +2825,18 @@
       <c r="K26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
+      <c r="L26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
@@ -2693,10 +2856,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>9</v>
@@ -2707,7 +2870,7 @@
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>21</v>
@@ -2724,10 +2887,18 @@
       <c r="K27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
+      <c r="L27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P27" s="38"/>
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
@@ -2747,21 +2918,21 @@
         <v>22</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>21</v>
@@ -2778,10 +2949,18 @@
       <c r="K28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
+      <c r="L28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P28" s="38"/>
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
@@ -2801,21 +2980,21 @@
         <v>23</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>21</v>
@@ -2832,10 +3011,18 @@
       <c r="K29" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
+      <c r="L29" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P29" s="38"/>
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
@@ -2855,21 +3042,21 @@
         <v>24</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>21</v>
@@ -2886,10 +3073,18 @@
       <c r="K30" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
+      <c r="L30" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P30" s="38"/>
       <c r="Q30" s="38"/>
       <c r="R30" s="38"/>
@@ -2909,21 +3104,21 @@
         <v>25</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>20</v>
@@ -2940,10 +3135,18 @@
       <c r="K31" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="L31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P31" s="38"/>
       <c r="Q31" s="38"/>
       <c r="R31" s="38"/>
@@ -2963,10 +3166,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>9</v>
@@ -2977,7 +3180,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>20</v>
@@ -2994,10 +3197,18 @@
       <c r="K32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="L32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P32" s="38"/>
       <c r="Q32" s="38"/>
       <c r="R32" s="38"/>
@@ -3017,21 +3228,21 @@
         <v>27</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>21</v>
@@ -3048,10 +3259,18 @@
       <c r="K33" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="L33" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P33" s="38"/>
       <c r="Q33" s="38"/>
       <c r="R33" s="38"/>
@@ -3071,21 +3290,21 @@
         <v>28</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>21</v>
@@ -3102,10 +3321,18 @@
       <c r="K34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
+      <c r="L34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P34" s="38"/>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
@@ -3125,10 +3352,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>9</v>
@@ -3139,7 +3366,7 @@
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>20</v>
@@ -3156,10 +3383,18 @@
       <c r="K35" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
+      <c r="L35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P35" s="38"/>
       <c r="Q35" s="38"/>
       <c r="R35" s="38"/>
@@ -3179,21 +3414,21 @@
         <v>30</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>21</v>
@@ -3210,10 +3445,18 @@
       <c r="K36" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
+      <c r="L36" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
@@ -3233,10 +3476,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>9</v>
@@ -3247,7 +3490,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>21</v>
@@ -3264,10 +3507,18 @@
       <c r="K37" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
+      <c r="L37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P37" s="38"/>
       <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
@@ -3287,21 +3538,21 @@
         <v>32</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>21</v>
@@ -3318,10 +3569,18 @@
       <c r="K38" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
+      <c r="L38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P38" s="38"/>
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
@@ -3341,21 +3600,21 @@
         <v>33</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>20</v>
@@ -3372,10 +3631,18 @@
       <c r="K39" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
+      <c r="L39" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P39" s="38"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
@@ -3395,21 +3662,21 @@
         <v>34</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>20</v>
@@ -3426,10 +3693,18 @@
       <c r="K40" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
+      <c r="L40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P40" s="38"/>
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
@@ -3449,10 +3724,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>9</v>
@@ -3463,7 +3738,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>21</v>
@@ -3480,10 +3755,18 @@
       <c r="K41" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
+      <c r="L41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P41" s="38"/>
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
@@ -3503,21 +3786,21 @@
         <v>36</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>20</v>
@@ -3534,10 +3817,18 @@
       <c r="K42" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
+      <c r="L42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P42" s="38"/>
       <c r="Q42" s="38"/>
       <c r="R42" s="38"/>
@@ -3557,10 +3848,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>9</v>
@@ -3571,7 +3862,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>21</v>
@@ -3588,10 +3879,18 @@
       <c r="K43" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
+      <c r="L43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P43" s="38"/>
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
@@ -3611,10 +3910,10 @@
         <v>38</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>9</v>
@@ -3625,7 +3924,7 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>20</v>
@@ -3642,10 +3941,18 @@
       <c r="K44" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
+      <c r="L44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P44" s="38"/>
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
@@ -3665,10 +3972,10 @@
         <v>39</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D45" s="26" t="s">
         <v>9</v>
@@ -3679,7 +3986,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>21</v>
@@ -3696,10 +4003,18 @@
       <c r="K45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
+      <c r="L45" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P45" s="38"/>
       <c r="Q45" s="38"/>
       <c r="R45" s="38"/>
@@ -3719,21 +4034,21 @@
         <v>40</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>21</v>
@@ -3750,10 +4065,18 @@
       <c r="K46" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
+      <c r="L46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P46" s="38"/>
       <c r="Q46" s="38"/>
       <c r="R46" s="38"/>
@@ -3773,10 +4096,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>9</v>
@@ -3787,7 +4110,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>21</v>
@@ -3804,10 +4127,18 @@
       <c r="K47" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
+      <c r="L47" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P47" s="38"/>
       <c r="Q47" s="38"/>
       <c r="R47" s="38"/>
@@ -3827,10 +4158,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>9</v>
@@ -3841,7 +4172,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>21</v>
@@ -3858,10 +4189,18 @@
       <c r="K48" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
+      <c r="L48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P48" s="38"/>
       <c r="Q48" s="38"/>
       <c r="R48" s="38"/>
@@ -3881,10 +4220,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>9</v>
@@ -3895,7 +4234,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>21</v>
@@ -3912,10 +4251,18 @@
       <c r="K49" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
+      <c r="L49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P49" s="38"/>
       <c r="Q49" s="38"/>
       <c r="R49" s="38"/>
@@ -3935,10 +4282,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>9</v>
@@ -3949,7 +4296,7 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>21</v>
@@ -3966,10 +4313,18 @@
       <c r="K50" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
+      <c r="L50" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P50" s="38"/>
       <c r="Q50" s="38"/>
       <c r="R50" s="38"/>
@@ -3989,21 +4344,21 @@
         <v>45</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>21</v>
@@ -4020,10 +4375,18 @@
       <c r="K51" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
+      <c r="L51" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P51" s="38"/>
       <c r="Q51" s="38"/>
       <c r="R51" s="38"/>
@@ -4043,10 +4406,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>9</v>
@@ -4057,7 +4420,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>21</v>
@@ -4074,10 +4437,18 @@
       <c r="K52" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
+      <c r="L52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P52" s="38"/>
       <c r="Q52" s="38"/>
       <c r="R52" s="38"/>
@@ -4097,21 +4468,21 @@
         <v>47</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>21</v>
@@ -4128,10 +4499,18 @@
       <c r="K53" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
+      <c r="L53" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P53" s="38"/>
       <c r="Q53" s="38"/>
       <c r="R53" s="38"/>
@@ -4151,21 +4530,21 @@
         <v>48</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>21</v>
@@ -4182,10 +4561,18 @@
       <c r="K54" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
+      <c r="L54" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P54" s="38"/>
       <c r="Q54" s="38"/>
       <c r="R54" s="38"/>
@@ -4205,21 +4592,21 @@
         <v>49</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>21</v>
@@ -4236,10 +4623,18 @@
       <c r="K55" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
+      <c r="L55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P55" s="38"/>
       <c r="Q55" s="38"/>
       <c r="R55" s="38"/>
@@ -4259,21 +4654,21 @@
         <v>50</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>21</v>
@@ -4290,10 +4685,18 @@
       <c r="K56" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
+      <c r="L56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P56" s="38"/>
       <c r="Q56" s="38"/>
       <c r="R56" s="38"/>
@@ -4313,10 +4716,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>9</v>
@@ -4327,7 +4730,7 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>21</v>
@@ -4344,10 +4747,18 @@
       <c r="K57" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
+      <c r="L57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P57" s="38"/>
       <c r="Q57" s="38"/>
       <c r="R57" s="38"/>
@@ -4367,21 +4778,21 @@
         <v>52</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>21</v>
@@ -4398,10 +4809,18 @@
       <c r="K58" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
+      <c r="L58" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P58" s="38"/>
       <c r="Q58" s="38"/>
       <c r="R58" s="38"/>
@@ -4421,10 +4840,10 @@
         <v>53</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>9</v>
@@ -4435,7 +4854,7 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>21</v>
@@ -4452,10 +4871,18 @@
       <c r="K59" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
+      <c r="L59" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P59" s="38"/>
       <c r="Q59" s="38"/>
       <c r="R59" s="38"/>
@@ -4475,21 +4902,21 @@
         <v>54</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>21</v>
@@ -4506,10 +4933,18 @@
       <c r="K60" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
+      <c r="L60" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P60" s="38"/>
       <c r="Q60" s="38"/>
       <c r="R60" s="38"/>
@@ -4529,21 +4964,21 @@
         <v>55</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>20</v>
@@ -4560,10 +4995,18 @@
       <c r="K61" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
+      <c r="L61" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O61" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P61" s="38"/>
       <c r="Q61" s="38"/>
       <c r="R61" s="38"/>
@@ -4583,10 +5026,10 @@
         <v>56</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>9</v>
@@ -4597,7 +5040,7 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>21</v>
@@ -4614,10 +5057,18 @@
       <c r="K62" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
+      <c r="L62" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P62" s="38"/>
       <c r="Q62" s="38"/>
       <c r="R62" s="38"/>
@@ -4637,10 +5088,10 @@
         <v>57</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" s="26" t="s">
         <v>9</v>
@@ -4651,7 +5102,7 @@
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G63" s="36" t="s">
         <v>21</v>
@@ -4668,10 +5119,18 @@
       <c r="K63" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
+      <c r="L63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P63" s="38"/>
       <c r="Q63" s="38"/>
       <c r="R63" s="38"/>
@@ -4691,10 +5150,10 @@
         <v>58</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D64" s="26" t="s">
         <v>9</v>
@@ -4705,7 +5164,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>20</v>
@@ -4722,10 +5181,18 @@
       <c r="K64" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
+      <c r="L64" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P64" s="38"/>
       <c r="Q64" s="38"/>
       <c r="R64" s="38"/>
@@ -4745,10 +5212,10 @@
         <v>59</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>9</v>
@@ -4759,7 +5226,7 @@
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>20</v>
@@ -4776,10 +5243,18 @@
       <c r="K65" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
+      <c r="L65" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P65" s="38"/>
       <c r="Q65" s="38"/>
       <c r="R65" s="38"/>
@@ -4799,10 +5274,10 @@
         <v>60</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D66" s="26" t="s">
         <v>9</v>
@@ -4813,7 +5288,7 @@
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>21</v>
@@ -4830,10 +5305,18 @@
       <c r="K66" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
+      <c r="L66" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P66" s="38"/>
       <c r="Q66" s="38"/>
       <c r="R66" s="38"/>
@@ -4853,10 +5336,10 @@
         <v>61</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>9</v>
@@ -4867,7 +5350,7 @@
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>20</v>
@@ -4884,10 +5367,18 @@
       <c r="K67" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
+      <c r="L67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P67" s="38"/>
       <c r="Q67" s="38"/>
       <c r="R67" s="38"/>
@@ -4907,10 +5398,10 @@
         <v>62</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>9</v>
@@ -4921,7 +5412,7 @@
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>21</v>
@@ -4938,10 +5429,18 @@
       <c r="K68" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
+      <c r="L68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P68" s="38"/>
       <c r="Q68" s="38"/>
       <c r="R68" s="38"/>
@@ -4961,10 +5460,10 @@
         <v>63</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D69" s="26" t="s">
         <v>9</v>
@@ -4975,7 +5474,7 @@
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>20</v>
@@ -4992,10 +5491,18 @@
       <c r="K69" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
+      <c r="L69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P69" s="38"/>
       <c r="Q69" s="38"/>
       <c r="R69" s="38"/>
@@ -5015,21 +5522,21 @@
         <v>64</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D70" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>21</v>
@@ -5046,10 +5553,18 @@
       <c r="K70" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
+      <c r="L70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P70" s="38"/>
       <c r="Q70" s="38"/>
       <c r="R70" s="38"/>
@@ -5069,10 +5584,10 @@
         <v>65</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>9</v>
@@ -5083,7 +5598,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>21</v>
@@ -5100,10 +5615,18 @@
       <c r="K71" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
+      <c r="L71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P71" s="38"/>
       <c r="Q71" s="38"/>
       <c r="R71" s="38"/>
@@ -5123,10 +5646,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D72" s="26" t="s">
         <v>9</v>
@@ -5137,7 +5660,7 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>21</v>
@@ -5154,10 +5677,18 @@
       <c r="K72" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
+      <c r="L72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P72" s="38"/>
       <c r="Q72" s="38"/>
       <c r="R72" s="38"/>
@@ -5177,21 +5708,21 @@
         <v>67</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D73" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>21</v>
@@ -5208,10 +5739,18 @@
       <c r="K73" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
+      <c r="L73" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P73" s="38"/>
       <c r="Q73" s="38"/>
       <c r="R73" s="38"/>
@@ -5231,21 +5770,21 @@
         <v>68</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D74" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>21</v>
@@ -5262,10 +5801,18 @@
       <c r="K74" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="38"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
+      <c r="L74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P74" s="38"/>
       <c r="Q74" s="38"/>
       <c r="R74" s="38"/>
@@ -5285,21 +5832,21 @@
         <v>69</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D75" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>20</v>
@@ -5316,10 +5863,18 @@
       <c r="K75" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
+      <c r="L75" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P75" s="38"/>
       <c r="Q75" s="38"/>
       <c r="R75" s="38"/>
@@ -5339,10 +5894,10 @@
         <v>70</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>9</v>
@@ -5353,7 +5908,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>21</v>
@@ -5370,10 +5925,18 @@
       <c r="K76" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
+      <c r="L76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O76" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="P76" s="38"/>
       <c r="Q76" s="38"/>
       <c r="R76" s="38"/>
@@ -5393,21 +5956,21 @@
         <v>71</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D77" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>21</v>
@@ -5424,10 +5987,18 @@
       <c r="K77" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
+      <c r="L77" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="P77" s="38"/>
       <c r="Q77" s="38"/>
       <c r="R77" s="38"/>

--- a/attendance-files/MR/MR-A (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-A (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Ananya Srivastava</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
   <si>
     <t>2021IPM091</t>
@@ -1626,11 +1629,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1659,8 +1662,12 @@
       <c r="O7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="R7" s="31"/>
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
@@ -1692,7 +1699,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>21</v>
@@ -1721,8 +1728,12 @@
       <c r="O8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
+      <c r="P8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -1750,11 +1761,11 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>20</v>
@@ -1783,8 +1794,12 @@
       <c r="O9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
+      <c r="P9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -1816,7 +1831,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>21</v>
@@ -1845,8 +1860,12 @@
       <c r="O10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
+      <c r="P10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -1874,11 +1893,11 @@
       </c>
       <c r="E11" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>20</v>
@@ -1907,8 +1926,12 @@
       <c r="O11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
+      <c r="P11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -1940,7 +1963,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>21</v>
@@ -1969,8 +1992,12 @@
       <c r="O12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
+      <c r="P12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
@@ -2002,7 +2029,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>21</v>
@@ -2031,8 +2058,12 @@
       <c r="O13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
+      <c r="P13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -2060,11 +2091,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>21</v>
@@ -2093,8 +2124,12 @@
       <c r="O14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
+      <c r="P14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -2126,7 +2161,7 @@
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>21</v>
@@ -2155,8 +2190,12 @@
       <c r="O15" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
+      <c r="P15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -2188,7 +2227,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>21</v>
@@ -2217,8 +2256,12 @@
       <c r="O16" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="P16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -2246,11 +2289,11 @@
       </c>
       <c r="E17" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>21</v>
@@ -2279,8 +2322,12 @@
       <c r="O17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
+      <c r="P17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
@@ -2308,11 +2355,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>21</v>
@@ -2341,8 +2388,12 @@
       <c r="O18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
+      <c r="P18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
       <c r="T18" s="38"/>
@@ -2370,11 +2421,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>21</v>
@@ -2386,7 +2437,7 @@
         <v>21</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" s="37" t="s">
         <v>21</v>
@@ -2403,8 +2454,12 @@
       <c r="O19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
+      <c r="P19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R19" s="38"/>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
@@ -2436,7 +2491,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>21</v>
@@ -2465,8 +2520,12 @@
       <c r="O20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
@@ -2494,11 +2553,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>21</v>
@@ -2527,8 +2586,12 @@
       <c r="O21" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="P21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
@@ -2560,7 +2623,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>21</v>
@@ -2589,8 +2652,12 @@
       <c r="O22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
+      <c r="P22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
@@ -2622,7 +2689,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>21</v>
@@ -2651,8 +2718,12 @@
       <c r="O23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="P23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
@@ -2684,7 +2755,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>21</v>
@@ -2713,8 +2784,12 @@
       <c r="O24" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
+      <c r="P24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
@@ -2742,11 +2817,11 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>21</v>
@@ -2775,8 +2850,12 @@
       <c r="O25" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
+      <c r="P25" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R25" s="38"/>
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
@@ -2804,11 +2883,11 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>21</v>
@@ -2837,8 +2916,12 @@
       <c r="O26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
+      <c r="P26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R26" s="38"/>
       <c r="S26" s="38"/>
       <c r="T26" s="38"/>
@@ -2866,11 +2949,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>21</v>
@@ -2899,8 +2982,12 @@
       <c r="O27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
+      <c r="P27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R27" s="38"/>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
@@ -2928,11 +3015,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>21</v>
@@ -2961,8 +3048,12 @@
       <c r="O28" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
+      <c r="P28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R28" s="38"/>
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
@@ -2994,7 +3085,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>21</v>
@@ -3023,8 +3114,12 @@
       <c r="O29" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
+      <c r="P29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
@@ -3052,11 +3147,11 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>21</v>
@@ -3085,8 +3180,12 @@
       <c r="O30" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
+      <c r="P30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R30" s="38"/>
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
@@ -3118,7 +3217,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>20</v>
@@ -3147,8 +3246,12 @@
       <c r="O31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
+      <c r="P31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
@@ -3180,7 +3283,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>20</v>
@@ -3209,8 +3312,12 @@
       <c r="O32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
+      <c r="P32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
@@ -3242,7 +3349,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>21</v>
@@ -3271,8 +3378,12 @@
       <c r="O33" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
+      <c r="P33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
@@ -3304,7 +3415,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>21</v>
@@ -3333,8 +3444,12 @@
       <c r="O34" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
+      <c r="P34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
@@ -3366,7 +3481,7 @@
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>20</v>
@@ -3395,8 +3510,12 @@
       <c r="O35" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
+      <c r="P35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
       <c r="T35" s="38"/>
@@ -3428,7 +3547,7 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>21</v>
@@ -3457,8 +3576,12 @@
       <c r="O36" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
+      <c r="P36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
       <c r="T36" s="38"/>
@@ -3490,7 +3613,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>21</v>
@@ -3519,8 +3642,12 @@
       <c r="O37" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P37" s="38"/>
-      <c r="Q37" s="38"/>
+      <c r="P37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R37" s="38"/>
       <c r="S37" s="38"/>
       <c r="T37" s="38"/>
@@ -3552,7 +3679,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>21</v>
@@ -3581,8 +3708,12 @@
       <c r="O38" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="38"/>
+      <c r="P38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
       <c r="T38" s="38"/>
@@ -3614,7 +3745,7 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>20</v>
@@ -3643,8 +3774,12 @@
       <c r="O39" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38"/>
+      <c r="P39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
       <c r="T39" s="38"/>
@@ -3676,7 +3811,7 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>20</v>
@@ -3705,8 +3840,12 @@
       <c r="O40" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
+      <c r="P40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
       <c r="T40" s="38"/>
@@ -3734,11 +3873,11 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>21</v>
@@ -3767,8 +3906,12 @@
       <c r="O41" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
+      <c r="P41" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
       <c r="T41" s="38"/>
@@ -3800,7 +3943,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>20</v>
@@ -3829,8 +3972,12 @@
       <c r="O42" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
+      <c r="P42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
       <c r="T42" s="38"/>
@@ -3862,7 +4009,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>21</v>
@@ -3891,8 +4038,12 @@
       <c r="O43" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
+      <c r="P43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
       <c r="T43" s="38"/>
@@ -3920,11 +4071,11 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>20</v>
@@ -3953,8 +4104,12 @@
       <c r="O44" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
+      <c r="P44" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>
       <c r="T44" s="38"/>
@@ -3982,11 +4137,11 @@
       </c>
       <c r="E45" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>21</v>
@@ -4015,8 +4170,12 @@
       <c r="O45" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
+      <c r="P45" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q45" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R45" s="38"/>
       <c r="S45" s="38"/>
       <c r="T45" s="38"/>
@@ -4034,10 +4193,10 @@
         <v>40</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>9</v>
@@ -4048,7 +4207,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>21</v>
@@ -4077,8 +4236,12 @@
       <c r="O46" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
+      <c r="P46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R46" s="38"/>
       <c r="S46" s="38"/>
       <c r="T46" s="38"/>
@@ -4096,21 +4259,21 @@
         <v>41</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>21</v>
@@ -4139,8 +4302,12 @@
       <c r="O47" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
+      <c r="P47" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R47" s="38"/>
       <c r="S47" s="38"/>
       <c r="T47" s="38"/>
@@ -4158,10 +4325,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>9</v>
@@ -4172,7 +4339,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>21</v>
@@ -4201,8 +4368,12 @@
       <c r="O48" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
+      <c r="P48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R48" s="38"/>
       <c r="S48" s="38"/>
       <c r="T48" s="38"/>
@@ -4220,10 +4391,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>9</v>
@@ -4234,7 +4405,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>21</v>
@@ -4263,8 +4434,12 @@
       <c r="O49" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
+      <c r="P49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R49" s="38"/>
       <c r="S49" s="38"/>
       <c r="T49" s="38"/>
@@ -4282,10 +4457,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>9</v>
@@ -4296,7 +4471,7 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>21</v>
@@ -4325,8 +4500,12 @@
       <c r="O50" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
+      <c r="P50" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R50" s="38"/>
       <c r="S50" s="38"/>
       <c r="T50" s="38"/>
@@ -4344,21 +4523,21 @@
         <v>45</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>21</v>
@@ -4387,8 +4566,12 @@
       <c r="O51" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
+      <c r="P51" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R51" s="38"/>
       <c r="S51" s="38"/>
       <c r="T51" s="38"/>
@@ -4406,10 +4589,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>9</v>
@@ -4420,7 +4603,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>21</v>
@@ -4449,8 +4632,12 @@
       <c r="O52" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
+      <c r="P52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R52" s="38"/>
       <c r="S52" s="38"/>
       <c r="T52" s="38"/>
@@ -4468,10 +4655,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>9</v>
@@ -4482,7 +4669,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>21</v>
@@ -4511,8 +4698,12 @@
       <c r="O53" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
+      <c r="P53" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q53" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R53" s="38"/>
       <c r="S53" s="38"/>
       <c r="T53" s="38"/>
@@ -4530,21 +4721,21 @@
         <v>48</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D54" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>21</v>
@@ -4573,8 +4764,12 @@
       <c r="O54" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
+      <c r="P54" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R54" s="38"/>
       <c r="S54" s="38"/>
       <c r="T54" s="38"/>
@@ -4592,21 +4787,21 @@
         <v>49</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D55" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>21</v>
@@ -4635,8 +4830,12 @@
       <c r="O55" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
+      <c r="P55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R55" s="38"/>
       <c r="S55" s="38"/>
       <c r="T55" s="38"/>
@@ -4654,10 +4853,10 @@
         <v>50</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>9</v>
@@ -4668,7 +4867,7 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>21</v>
@@ -4697,8 +4896,12 @@
       <c r="O56" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
+      <c r="P56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R56" s="38"/>
       <c r="S56" s="38"/>
       <c r="T56" s="38"/>
@@ -4716,21 +4919,21 @@
         <v>51</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>21</v>
@@ -4759,8 +4962,12 @@
       <c r="O57" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
+      <c r="P57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R57" s="38"/>
       <c r="S57" s="38"/>
       <c r="T57" s="38"/>
@@ -4778,21 +4985,21 @@
         <v>52</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>21</v>
@@ -4821,8 +5028,12 @@
       <c r="O58" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
+      <c r="P58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R58" s="38"/>
       <c r="S58" s="38"/>
       <c r="T58" s="38"/>
@@ -4840,10 +5051,10 @@
         <v>53</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>9</v>
@@ -4854,7 +5065,7 @@
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>21</v>
@@ -4883,8 +5094,12 @@
       <c r="O59" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
+      <c r="P59" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
       <c r="T59" s="38"/>
@@ -4902,21 +5117,21 @@
         <v>54</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>21</v>
@@ -4945,8 +5160,12 @@
       <c r="O60" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
+      <c r="P60" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R60" s="38"/>
       <c r="S60" s="38"/>
       <c r="T60" s="38"/>
@@ -4964,10 +5183,10 @@
         <v>55</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>9</v>
@@ -4978,7 +5197,7 @@
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>20</v>
@@ -5007,8 +5226,12 @@
       <c r="O61" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
+      <c r="P61" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R61" s="38"/>
       <c r="S61" s="38"/>
       <c r="T61" s="38"/>
@@ -5026,21 +5249,21 @@
         <v>56</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>21</v>
@@ -5069,8 +5292,12 @@
       <c r="O62" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
+      <c r="P62" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q62" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R62" s="38"/>
       <c r="S62" s="38"/>
       <c r="T62" s="38"/>
@@ -5088,21 +5315,21 @@
         <v>57</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D63" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" s="36" t="s">
         <v>21</v>
@@ -5131,8 +5358,12 @@
       <c r="O63" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
+      <c r="P63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R63" s="38"/>
       <c r="S63" s="38"/>
       <c r="T63" s="38"/>
@@ -5150,10 +5381,10 @@
         <v>58</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D64" s="26" t="s">
         <v>9</v>
@@ -5164,7 +5395,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>20</v>
@@ -5193,8 +5424,12 @@
       <c r="O64" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
+      <c r="P64" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R64" s="38"/>
       <c r="S64" s="38"/>
       <c r="T64" s="38"/>
@@ -5212,10 +5447,10 @@
         <v>59</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>9</v>
@@ -5226,7 +5461,7 @@
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>20</v>
@@ -5255,8 +5490,12 @@
       <c r="O65" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
+      <c r="P65" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R65" s="38"/>
       <c r="S65" s="38"/>
       <c r="T65" s="38"/>
@@ -5274,10 +5513,10 @@
         <v>60</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D66" s="26" t="s">
         <v>9</v>
@@ -5288,7 +5527,7 @@
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>21</v>
@@ -5317,8 +5556,12 @@
       <c r="O66" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
+      <c r="P66" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R66" s="38"/>
       <c r="S66" s="38"/>
       <c r="T66" s="38"/>
@@ -5336,10 +5579,10 @@
         <v>61</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>9</v>
@@ -5350,7 +5593,7 @@
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>20</v>
@@ -5379,8 +5622,12 @@
       <c r="O67" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
+      <c r="P67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R67" s="38"/>
       <c r="S67" s="38"/>
       <c r="T67" s="38"/>
@@ -5398,21 +5645,21 @@
         <v>62</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D68" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>21</v>
@@ -5441,8 +5688,12 @@
       <c r="O68" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
+      <c r="P68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R68" s="38"/>
       <c r="S68" s="38"/>
       <c r="T68" s="38"/>
@@ -5460,21 +5711,21 @@
         <v>63</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D69" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>20</v>
@@ -5503,8 +5754,12 @@
       <c r="O69" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
+      <c r="P69" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q69" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R69" s="38"/>
       <c r="S69" s="38"/>
       <c r="T69" s="38"/>
@@ -5522,10 +5777,10 @@
         <v>64</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" s="26" t="s">
         <v>9</v>
@@ -5536,7 +5791,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>21</v>
@@ -5565,8 +5820,12 @@
       <c r="O70" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
+      <c r="P70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q70" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R70" s="38"/>
       <c r="S70" s="38"/>
       <c r="T70" s="38"/>
@@ -5584,10 +5843,10 @@
         <v>65</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D71" s="26" t="s">
         <v>9</v>
@@ -5598,7 +5857,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>21</v>
@@ -5627,8 +5886,12 @@
       <c r="O71" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
+      <c r="P71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R71" s="38"/>
       <c r="S71" s="38"/>
       <c r="T71" s="38"/>
@@ -5646,10 +5909,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D72" s="26" t="s">
         <v>9</v>
@@ -5660,7 +5923,7 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>21</v>
@@ -5689,8 +5952,12 @@
       <c r="O72" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
+      <c r="P72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R72" s="38"/>
       <c r="S72" s="38"/>
       <c r="T72" s="38"/>
@@ -5708,21 +5975,21 @@
         <v>67</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D73" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>21</v>
@@ -5751,8 +6018,12 @@
       <c r="O73" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
+      <c r="P73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R73" s="38"/>
       <c r="S73" s="38"/>
       <c r="T73" s="38"/>
@@ -5770,21 +6041,21 @@
         <v>68</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D74" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>21</v>
@@ -5813,8 +6084,12 @@
       <c r="O74" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="38"/>
+      <c r="P74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q74" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="R74" s="38"/>
       <c r="S74" s="38"/>
       <c r="T74" s="38"/>
@@ -5832,10 +6107,10 @@
         <v>69</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D75" s="26" t="s">
         <v>9</v>
@@ -5846,7 +6121,7 @@
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>20</v>
@@ -5875,8 +6150,12 @@
       <c r="O75" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
+      <c r="P75" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q75" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R75" s="38"/>
       <c r="S75" s="38"/>
       <c r="T75" s="38"/>
@@ -5894,10 +6173,10 @@
         <v>70</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>9</v>
@@ -5908,7 +6187,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>21</v>
@@ -5937,8 +6216,12 @@
       <c r="O76" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
+      <c r="P76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R76" s="38"/>
       <c r="S76" s="38"/>
       <c r="T76" s="38"/>
@@ -5956,10 +6239,10 @@
         <v>71</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D77" s="26" t="s">
         <v>9</v>
@@ -5970,7 +6253,7 @@
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>21</v>
@@ -5999,8 +6282,12 @@
       <c r="O77" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
+      <c r="P77" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="R77" s="38"/>
       <c r="S77" s="38"/>
       <c r="T77" s="38"/>
@@ -6266,7 +6553,7 @@
       <c r="N84" s="38"/>
       <c r="O84" s="38"/>
       <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
+      <c r="Q84" s="37"/>
       <c r="R84" s="38"/>
       <c r="S84" s="38"/>
       <c r="T84" s="38"/>

--- a/attendance-files/MR/MR-A (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-A (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1629,11 +1629,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1668,8 +1668,12 @@
       <c r="Q7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
+      <c r="R7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
       <c r="V7" s="31"/>
@@ -1699,7 +1703,7 @@
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>21</v>
@@ -1734,8 +1738,12 @@
       <c r="Q8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
+      <c r="R8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T8" s="38"/>
       <c r="U8" s="38"/>
       <c r="V8" s="38"/>
@@ -1765,7 +1773,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>20</v>
@@ -1800,8 +1808,12 @@
       <c r="Q9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
+      <c r="R9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T9" s="38"/>
       <c r="U9" s="38"/>
       <c r="V9" s="38"/>
@@ -1831,7 +1843,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>21</v>
@@ -1866,8 +1878,12 @@
       <c r="Q10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
+      <c r="R10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T10" s="38"/>
       <c r="U10" s="38"/>
       <c r="V10" s="38"/>
@@ -1897,7 +1913,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>20</v>
@@ -1932,8 +1948,12 @@
       <c r="Q11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
+      <c r="R11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T11" s="38"/>
       <c r="U11" s="38"/>
       <c r="V11" s="38"/>
@@ -1963,7 +1983,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>21</v>
@@ -1998,8 +2018,12 @@
       <c r="Q12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="R12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T12" s="38"/>
       <c r="U12" s="38"/>
       <c r="V12" s="38"/>
@@ -2029,7 +2053,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>21</v>
@@ -2064,8 +2088,12 @@
       <c r="Q13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
+      <c r="R13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T13" s="38"/>
       <c r="U13" s="38"/>
       <c r="V13" s="38"/>
@@ -2095,7 +2123,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>21</v>
@@ -2130,8 +2158,12 @@
       <c r="Q14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
+      <c r="R14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T14" s="38"/>
       <c r="U14" s="38"/>
       <c r="V14" s="38"/>
@@ -2157,11 +2189,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>21</v>
@@ -2196,8 +2228,12 @@
       <c r="Q15" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+      <c r="R15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T15" s="38"/>
       <c r="U15" s="38"/>
       <c r="V15" s="38"/>
@@ -2227,7 +2263,7 @@
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>21</v>
@@ -2262,8 +2298,12 @@
       <c r="Q16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+      <c r="R16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T16" s="38"/>
       <c r="U16" s="38"/>
       <c r="V16" s="38"/>
@@ -2293,7 +2333,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>21</v>
@@ -2328,8 +2368,12 @@
       <c r="Q17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
+      <c r="R17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T17" s="38"/>
       <c r="U17" s="38"/>
       <c r="V17" s="38"/>
@@ -2359,7 +2403,7 @@
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>21</v>
@@ -2394,8 +2438,12 @@
       <c r="Q18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
+      <c r="R18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T18" s="38"/>
       <c r="U18" s="38"/>
       <c r="V18" s="38"/>
@@ -2425,7 +2473,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>21</v>
@@ -2460,8 +2508,12 @@
       <c r="Q19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
+      <c r="R19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T19" s="38"/>
       <c r="U19" s="38"/>
       <c r="V19" s="38"/>
@@ -2491,7 +2543,7 @@
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>21</v>
@@ -2526,8 +2578,12 @@
       <c r="Q20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
+      <c r="R20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T20" s="38"/>
       <c r="U20" s="38"/>
       <c r="V20" s="38"/>
@@ -2557,7 +2613,7 @@
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>21</v>
@@ -2592,8 +2648,12 @@
       <c r="Q21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
+      <c r="R21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T21" s="38"/>
       <c r="U21" s="38"/>
       <c r="V21" s="38"/>
@@ -2623,7 +2683,7 @@
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>21</v>
@@ -2658,8 +2718,12 @@
       <c r="Q22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
+      <c r="R22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
       <c r="V22" s="38"/>
@@ -2689,7 +2753,7 @@
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>21</v>
@@ -2724,8 +2788,12 @@
       <c r="Q23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
+      <c r="R23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
       <c r="V23" s="38"/>
@@ -2751,11 +2819,11 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>21</v>
@@ -2790,8 +2858,12 @@
       <c r="Q24" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
+      <c r="R24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
@@ -2821,7 +2893,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>21</v>
@@ -2856,8 +2928,12 @@
       <c r="Q25" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
+      <c r="R25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T25" s="38"/>
       <c r="U25" s="38"/>
       <c r="V25" s="38"/>
@@ -2887,7 +2963,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>21</v>
@@ -2922,8 +2998,12 @@
       <c r="Q26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
+      <c r="R26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T26" s="38"/>
       <c r="U26" s="38"/>
       <c r="V26" s="38"/>
@@ -2949,11 +3029,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>21</v>
@@ -2988,8 +3068,12 @@
       <c r="Q27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
+      <c r="R27" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T27" s="38"/>
       <c r="U27" s="38"/>
       <c r="V27" s="38"/>
@@ -3019,7 +3103,7 @@
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>21</v>
@@ -3054,8 +3138,12 @@
       <c r="Q28" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
+      <c r="R28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T28" s="38"/>
       <c r="U28" s="38"/>
       <c r="V28" s="38"/>
@@ -3085,7 +3173,7 @@
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>21</v>
@@ -3120,8 +3208,12 @@
       <c r="Q29" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
+      <c r="R29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T29" s="38"/>
       <c r="U29" s="38"/>
       <c r="V29" s="38"/>
@@ -3147,11 +3239,11 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>21</v>
@@ -3186,8 +3278,12 @@
       <c r="Q30" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
+      <c r="R30" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T30" s="38"/>
       <c r="U30" s="38"/>
       <c r="V30" s="38"/>
@@ -3217,7 +3313,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>20</v>
@@ -3252,8 +3348,12 @@
       <c r="Q31" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
+      <c r="R31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T31" s="38"/>
       <c r="U31" s="38"/>
       <c r="V31" s="38"/>
@@ -3283,7 +3383,7 @@
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>20</v>
@@ -3318,8 +3418,12 @@
       <c r="Q32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
+      <c r="R32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T32" s="38"/>
       <c r="U32" s="38"/>
       <c r="V32" s="38"/>
@@ -3345,11 +3449,11 @@
       </c>
       <c r="E33" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>21</v>
@@ -3384,8 +3488,12 @@
       <c r="Q33" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
+      <c r="R33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T33" s="38"/>
       <c r="U33" s="38"/>
       <c r="V33" s="38"/>
@@ -3411,7 +3519,7 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
@@ -3450,8 +3558,12 @@
       <c r="Q34" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
+      <c r="R34" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T34" s="38"/>
       <c r="U34" s="38"/>
       <c r="V34" s="38"/>
@@ -3481,7 +3593,7 @@
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>20</v>
@@ -3516,8 +3628,12 @@
       <c r="Q35" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
+      <c r="R35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T35" s="38"/>
       <c r="U35" s="38"/>
       <c r="V35" s="38"/>
@@ -3547,7 +3663,7 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>21</v>
@@ -3582,8 +3698,12 @@
       <c r="Q36" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
+      <c r="R36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T36" s="38"/>
       <c r="U36" s="38"/>
       <c r="V36" s="38"/>
@@ -3609,11 +3729,11 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>21</v>
@@ -3648,8 +3768,12 @@
       <c r="Q37" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
+      <c r="R37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T37" s="38"/>
       <c r="U37" s="38"/>
       <c r="V37" s="38"/>
@@ -3679,7 +3803,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>21</v>
@@ -3714,8 +3838,12 @@
       <c r="Q38" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
+      <c r="R38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T38" s="38"/>
       <c r="U38" s="38"/>
       <c r="V38" s="38"/>
@@ -3745,7 +3873,7 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>20</v>
@@ -3780,8 +3908,12 @@
       <c r="Q39" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
+      <c r="R39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T39" s="38"/>
       <c r="U39" s="38"/>
       <c r="V39" s="38"/>
@@ -3811,7 +3943,7 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>20</v>
@@ -3846,8 +3978,12 @@
       <c r="Q40" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
+      <c r="R40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T40" s="38"/>
       <c r="U40" s="38"/>
       <c r="V40" s="38"/>
@@ -3877,7 +4013,7 @@
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>21</v>
@@ -3912,8 +4048,12 @@
       <c r="Q41" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
+      <c r="R41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T41" s="38"/>
       <c r="U41" s="38"/>
       <c r="V41" s="38"/>
@@ -3939,11 +4079,11 @@
       </c>
       <c r="E42" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>20</v>
@@ -3978,8 +4118,12 @@
       <c r="Q42" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
+      <c r="R42" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T42" s="38"/>
       <c r="U42" s="38"/>
       <c r="V42" s="38"/>
@@ -4009,7 +4153,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>21</v>
@@ -4044,8 +4188,12 @@
       <c r="Q43" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
+      <c r="R43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T43" s="38"/>
       <c r="U43" s="38"/>
       <c r="V43" s="38"/>
@@ -4075,7 +4223,7 @@
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>20</v>
@@ -4110,8 +4258,12 @@
       <c r="Q44" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
+      <c r="R44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T44" s="38"/>
       <c r="U44" s="38"/>
       <c r="V44" s="38"/>
@@ -4141,7 +4293,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>21</v>
@@ -4176,8 +4328,12 @@
       <c r="Q45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
+      <c r="R45" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T45" s="38"/>
       <c r="U45" s="38"/>
       <c r="V45" s="38"/>
@@ -4207,7 +4363,7 @@
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>21</v>
@@ -4242,8 +4398,12 @@
       <c r="Q46" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
+      <c r="R46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T46" s="38"/>
       <c r="U46" s="38"/>
       <c r="V46" s="38"/>
@@ -4273,7 +4433,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>21</v>
@@ -4308,8 +4468,12 @@
       <c r="Q47" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
+      <c r="R47" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T47" s="38"/>
       <c r="U47" s="38"/>
       <c r="V47" s="38"/>
@@ -4339,7 +4503,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>21</v>
@@ -4374,8 +4538,12 @@
       <c r="Q48" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
+      <c r="R48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T48" s="38"/>
       <c r="U48" s="38"/>
       <c r="V48" s="38"/>
@@ -4401,11 +4569,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>21</v>
@@ -4440,8 +4608,12 @@
       <c r="Q49" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
+      <c r="R49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T49" s="38"/>
       <c r="U49" s="38"/>
       <c r="V49" s="38"/>
@@ -4471,7 +4643,7 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>21</v>
@@ -4506,8 +4678,12 @@
       <c r="Q50" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
+      <c r="R50" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T50" s="38"/>
       <c r="U50" s="38"/>
       <c r="V50" s="38"/>
@@ -4537,7 +4713,7 @@
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>21</v>
@@ -4572,8 +4748,12 @@
       <c r="Q51" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
+      <c r="R51" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T51" s="38"/>
       <c r="U51" s="38"/>
       <c r="V51" s="38"/>
@@ -4603,7 +4783,7 @@
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>21</v>
@@ -4638,8 +4818,12 @@
       <c r="Q52" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
+      <c r="R52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T52" s="38"/>
       <c r="U52" s="38"/>
       <c r="V52" s="38"/>
@@ -4665,11 +4849,11 @@
       </c>
       <c r="E53" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>21</v>
@@ -4704,8 +4888,12 @@
       <c r="Q53" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
+      <c r="R53" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T53" s="38"/>
       <c r="U53" s="38"/>
       <c r="V53" s="38"/>
@@ -4735,7 +4923,7 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>21</v>
@@ -4770,8 +4958,12 @@
       <c r="Q54" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
+      <c r="R54" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T54" s="38"/>
       <c r="U54" s="38"/>
       <c r="V54" s="38"/>
@@ -4797,11 +4989,11 @@
       </c>
       <c r="E55" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>21</v>
@@ -4836,8 +5028,12 @@
       <c r="Q55" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
+      <c r="R55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T55" s="38"/>
       <c r="U55" s="38"/>
       <c r="V55" s="38"/>
@@ -4867,7 +5063,7 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>21</v>
@@ -4902,8 +5098,12 @@
       <c r="Q56" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
+      <c r="R56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S56" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T56" s="38"/>
       <c r="U56" s="38"/>
       <c r="V56" s="38"/>
@@ -4933,7 +5133,7 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>21</v>
@@ -4968,8 +5168,12 @@
       <c r="Q57" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
+      <c r="R57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S57" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T57" s="38"/>
       <c r="U57" s="38"/>
       <c r="V57" s="38"/>
@@ -4999,7 +5203,7 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>21</v>
@@ -5034,8 +5238,12 @@
       <c r="Q58" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
+      <c r="R58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T58" s="38"/>
       <c r="U58" s="38"/>
       <c r="V58" s="38"/>
@@ -5061,11 +5269,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>21</v>
@@ -5100,8 +5308,12 @@
       <c r="Q59" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
+      <c r="R59" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T59" s="38"/>
       <c r="U59" s="38"/>
       <c r="V59" s="38"/>
@@ -5131,7 +5343,7 @@
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>21</v>
@@ -5166,8 +5378,12 @@
       <c r="Q60" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
+      <c r="R60" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S60" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T60" s="38"/>
       <c r="U60" s="38"/>
       <c r="V60" s="38"/>
@@ -5193,11 +5409,11 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>20</v>
@@ -5232,8 +5448,12 @@
       <c r="Q61" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
+      <c r="R61" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T61" s="38"/>
       <c r="U61" s="38"/>
       <c r="V61" s="38"/>
@@ -5263,7 +5483,7 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>21</v>
@@ -5298,8 +5518,12 @@
       <c r="Q62" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
+      <c r="R62" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S62" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T62" s="38"/>
       <c r="U62" s="38"/>
       <c r="V62" s="38"/>
@@ -5325,11 +5549,11 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G63" s="36" t="s">
         <v>21</v>
@@ -5364,8 +5588,12 @@
       <c r="Q63" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
+      <c r="R63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S63" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T63" s="38"/>
       <c r="U63" s="38"/>
       <c r="V63" s="38"/>
@@ -5395,7 +5623,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>20</v>
@@ -5430,8 +5658,12 @@
       <c r="Q64" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
+      <c r="R64" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T64" s="38"/>
       <c r="U64" s="38"/>
       <c r="V64" s="38"/>
@@ -5457,11 +5689,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>20</v>
@@ -5496,8 +5728,12 @@
       <c r="Q65" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
+      <c r="R65" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S65" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T65" s="38"/>
       <c r="U65" s="38"/>
       <c r="V65" s="38"/>
@@ -5527,7 +5763,7 @@
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>21</v>
@@ -5562,8 +5798,12 @@
       <c r="Q66" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
+      <c r="R66" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S66" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T66" s="38"/>
       <c r="U66" s="38"/>
       <c r="V66" s="38"/>
@@ -5589,11 +5829,11 @@
       </c>
       <c r="E67" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>20</v>
@@ -5628,8 +5868,12 @@
       <c r="Q67" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
+      <c r="R67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T67" s="38"/>
       <c r="U67" s="38"/>
       <c r="V67" s="38"/>
@@ -5655,11 +5899,11 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>21</v>
@@ -5694,8 +5938,12 @@
       <c r="Q68" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
+      <c r="R68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S68" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T68" s="38"/>
       <c r="U68" s="38"/>
       <c r="V68" s="38"/>
@@ -5725,7 +5973,7 @@
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>20</v>
@@ -5760,8 +6008,12 @@
       <c r="Q69" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
+      <c r="R69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S69" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T69" s="38"/>
       <c r="U69" s="38"/>
       <c r="V69" s="38"/>
@@ -5787,11 +6039,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>21</v>
@@ -5826,8 +6078,12 @@
       <c r="Q70" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
+      <c r="R70" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T70" s="38"/>
       <c r="U70" s="38"/>
       <c r="V70" s="38"/>
@@ -5853,11 +6109,11 @@
       </c>
       <c r="E71" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>21</v>
@@ -5892,8 +6148,12 @@
       <c r="Q71" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
+      <c r="R71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S71" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T71" s="38"/>
       <c r="U71" s="38"/>
       <c r="V71" s="38"/>
@@ -5923,7 +6183,7 @@
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>21</v>
@@ -5958,8 +6218,12 @@
       <c r="Q72" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
+      <c r="R72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T72" s="38"/>
       <c r="U72" s="38"/>
       <c r="V72" s="38"/>
@@ -5989,7 +6253,7 @@
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>21</v>
@@ -6024,8 +6288,12 @@
       <c r="Q73" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
+      <c r="R73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S73" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T73" s="38"/>
       <c r="U73" s="38"/>
       <c r="V73" s="38"/>
@@ -6055,7 +6323,7 @@
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>21</v>
@@ -6090,8 +6358,12 @@
       <c r="Q74" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="R74" s="38"/>
-      <c r="S74" s="38"/>
+      <c r="R74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T74" s="38"/>
       <c r="U74" s="38"/>
       <c r="V74" s="38"/>
@@ -6117,11 +6389,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>20</v>
@@ -6156,8 +6428,12 @@
       <c r="Q75" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
+      <c r="R75" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T75" s="38"/>
       <c r="U75" s="38"/>
       <c r="V75" s="38"/>
@@ -6187,7 +6463,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>21</v>
@@ -6222,8 +6498,12 @@
       <c r="Q76" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
+      <c r="R76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S76" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="T76" s="38"/>
       <c r="U76" s="38"/>
       <c r="V76" s="38"/>
@@ -6249,11 +6529,11 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>21</v>
@@ -6288,8 +6568,12 @@
       <c r="Q77" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
+      <c r="R77" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S77" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="T77" s="38"/>
       <c r="U77" s="38"/>
       <c r="V77" s="38"/>

--- a/attendance-files/MR/MR-A (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-A (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="164">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1674,10 +1674,18 @@
       <c r="S7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
+      <c r="T7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="X7" s="31"/>
       <c r="Y7" s="31"/>
       <c r="Z7" s="31"/>
@@ -1699,11 +1707,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>21</v>
@@ -1744,10 +1752,18 @@
       <c r="S8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
+      <c r="T8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X8" s="38"/>
       <c r="Y8" s="38"/>
       <c r="Z8" s="38"/>
@@ -1769,11 +1785,11 @@
       </c>
       <c r="E9" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>20</v>
@@ -1814,10 +1830,18 @@
       <c r="S9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
+      <c r="T9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
@@ -1839,11 +1863,11 @@
       </c>
       <c r="E10" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>21</v>
@@ -1884,10 +1908,18 @@
       <c r="S10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
+      <c r="T10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X10" s="38"/>
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
@@ -1913,7 +1945,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>20</v>
@@ -1954,10 +1986,18 @@
       <c r="S11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
+      <c r="T11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W11" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
@@ -1979,11 +2019,11 @@
       </c>
       <c r="E12" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>21</v>
@@ -2024,10 +2064,18 @@
       <c r="S12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
+      <c r="T12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
@@ -2049,11 +2097,11 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>21</v>
@@ -2094,10 +2142,18 @@
       <c r="S13" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
+      <c r="T13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W13" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
@@ -2119,11 +2175,11 @@
       </c>
       <c r="E14" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>21</v>
@@ -2164,10 +2220,18 @@
       <c r="S14" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
+      <c r="T14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
@@ -2189,11 +2253,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>21</v>
@@ -2234,10 +2298,18 @@
       <c r="S15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
+      <c r="T15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X15" s="38"/>
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
@@ -2259,11 +2331,11 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>21</v>
@@ -2304,10 +2376,18 @@
       <c r="S16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
+      <c r="T16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
@@ -2329,11 +2409,11 @@
       </c>
       <c r="E17" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>21</v>
@@ -2374,10 +2454,18 @@
       <c r="S17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
+      <c r="T17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W17" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
@@ -2399,11 +2487,11 @@
       </c>
       <c r="E18" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>21</v>
@@ -2444,10 +2532,18 @@
       <c r="S18" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
+      <c r="T18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
@@ -2469,11 +2565,11 @@
       </c>
       <c r="E19" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>21</v>
@@ -2514,10 +2610,18 @@
       <c r="S19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
+      <c r="T19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
@@ -2539,11 +2643,11 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>21</v>
@@ -2584,10 +2688,18 @@
       <c r="S20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
+      <c r="T20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
@@ -2609,11 +2721,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>21</v>
@@ -2654,10 +2766,18 @@
       <c r="S21" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
+      <c r="T21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X21" s="38"/>
       <c r="Y21" s="38"/>
       <c r="Z21" s="38"/>
@@ -2679,11 +2799,11 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>21</v>
@@ -2724,10 +2844,18 @@
       <c r="S22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
+      <c r="T22" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X22" s="38"/>
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
@@ -2749,11 +2877,11 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>21</v>
@@ -2794,10 +2922,18 @@
       <c r="S23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
+      <c r="T23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
@@ -2823,7 +2959,7 @@
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>21</v>
@@ -2864,10 +3000,18 @@
       <c r="S24" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
+      <c r="T24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X24" s="38"/>
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
@@ -2893,7 +3037,7 @@
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>21</v>
@@ -2934,10 +3078,18 @@
       <c r="S25" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
+      <c r="T25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X25" s="38"/>
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
@@ -2959,11 +3111,11 @@
       </c>
       <c r="E26" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>21</v>
@@ -3004,10 +3156,18 @@
       <c r="S26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
+      <c r="T26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X26" s="38"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
@@ -3029,11 +3189,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>21</v>
@@ -3074,10 +3234,18 @@
       <c r="S27" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
+      <c r="T27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W27" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
       <c r="Z27" s="38"/>
@@ -3099,11 +3267,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>21</v>
@@ -3144,10 +3312,18 @@
       <c r="S28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
+      <c r="T28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W28" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X28" s="38"/>
       <c r="Y28" s="38"/>
       <c r="Z28" s="38"/>
@@ -3169,11 +3345,11 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>21</v>
@@ -3214,10 +3390,18 @@
       <c r="S29" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
+      <c r="T29" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W29" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X29" s="38"/>
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
@@ -3239,11 +3423,11 @@
       </c>
       <c r="E30" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>21</v>
@@ -3284,10 +3468,18 @@
       <c r="S30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
+      <c r="T30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W30" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X30" s="38"/>
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
@@ -3313,7 +3505,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>20</v>
@@ -3354,10 +3546,18 @@
       <c r="S31" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
+      <c r="T31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X31" s="38"/>
       <c r="Y31" s="38"/>
       <c r="Z31" s="38"/>
@@ -3379,11 +3579,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>20</v>
@@ -3424,10 +3624,18 @@
       <c r="S32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
+      <c r="T32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W32" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X32" s="38"/>
       <c r="Y32" s="38"/>
       <c r="Z32" s="38"/>
@@ -3453,7 +3661,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>21</v>
@@ -3494,10 +3702,18 @@
       <c r="S33" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
+      <c r="T33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X33" s="38"/>
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
@@ -3523,7 +3739,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>21</v>
@@ -3564,10 +3780,18 @@
       <c r="S34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
+      <c r="T34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V34" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X34" s="38"/>
       <c r="Y34" s="38"/>
       <c r="Z34" s="38"/>
@@ -3593,7 +3817,7 @@
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>20</v>
@@ -3634,10 +3858,18 @@
       <c r="S35" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
+      <c r="T35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W35" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X35" s="38"/>
       <c r="Y35" s="38"/>
       <c r="Z35" s="38"/>
@@ -3663,7 +3895,7 @@
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>21</v>
@@ -3704,10 +3936,18 @@
       <c r="S36" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
+      <c r="T36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W36" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X36" s="38"/>
       <c r="Y36" s="38"/>
       <c r="Z36" s="38"/>
@@ -3729,11 +3969,11 @@
       </c>
       <c r="E37" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>21</v>
@@ -3774,10 +4014,18 @@
       <c r="S37" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
+      <c r="T37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W37" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X37" s="38"/>
       <c r="Y37" s="38"/>
       <c r="Z37" s="38"/>
@@ -3803,7 +4051,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>21</v>
@@ -3844,10 +4092,18 @@
       <c r="S38" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
+      <c r="T38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W38" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X38" s="38"/>
       <c r="Y38" s="38"/>
       <c r="Z38" s="38"/>
@@ -3873,7 +4129,7 @@
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>20</v>
@@ -3914,10 +4170,18 @@
       <c r="S39" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
+      <c r="T39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X39" s="38"/>
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
@@ -3943,7 +4207,7 @@
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>20</v>
@@ -3984,10 +4248,18 @@
       <c r="S40" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
+      <c r="T40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W40" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X40" s="38"/>
       <c r="Y40" s="38"/>
       <c r="Z40" s="38"/>
@@ -4009,11 +4281,11 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>21</v>
@@ -4054,10 +4326,18 @@
       <c r="S41" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
+      <c r="T41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W41" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X41" s="38"/>
       <c r="Y41" s="38"/>
       <c r="Z41" s="38"/>
@@ -4083,7 +4363,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>20</v>
@@ -4124,10 +4404,18 @@
       <c r="S42" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
+      <c r="T42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W42" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X42" s="38"/>
       <c r="Y42" s="38"/>
       <c r="Z42" s="38"/>
@@ -4149,11 +4437,11 @@
       </c>
       <c r="E43" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>21</v>
@@ -4194,10 +4482,18 @@
       <c r="S43" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
+      <c r="T43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W43" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X43" s="38"/>
       <c r="Y43" s="38"/>
       <c r="Z43" s="38"/>
@@ -4219,11 +4515,11 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>20</v>
@@ -4264,10 +4560,18 @@
       <c r="S44" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
+      <c r="T44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W44" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X44" s="38"/>
       <c r="Y44" s="38"/>
       <c r="Z44" s="38"/>
@@ -4293,7 +4597,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>21</v>
@@ -4334,10 +4638,18 @@
       <c r="S45" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
+      <c r="T45" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W45" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X45" s="38"/>
       <c r="Y45" s="38"/>
       <c r="Z45" s="38"/>
@@ -4359,11 +4671,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>21</v>
@@ -4404,10 +4716,18 @@
       <c r="S46" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
+      <c r="T46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W46" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X46" s="38"/>
       <c r="Y46" s="38"/>
       <c r="Z46" s="38"/>
@@ -4433,7 +4753,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>21</v>
@@ -4474,10 +4794,18 @@
       <c r="S47" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
+      <c r="T47" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U47" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W47" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X47" s="38"/>
       <c r="Y47" s="38"/>
       <c r="Z47" s="38"/>
@@ -4499,11 +4827,11 @@
       </c>
       <c r="E48" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>21</v>
@@ -4544,10 +4872,18 @@
       <c r="S48" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
+      <c r="T48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V48" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W48" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X48" s="38"/>
       <c r="Y48" s="38"/>
       <c r="Z48" s="38"/>
@@ -4573,7 +4909,7 @@
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>21</v>
@@ -4614,10 +4950,18 @@
       <c r="S49" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
+      <c r="T49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W49" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X49" s="38"/>
       <c r="Y49" s="38"/>
       <c r="Z49" s="38"/>
@@ -4639,11 +4983,11 @@
       </c>
       <c r="E50" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>21</v>
@@ -4684,10 +5028,18 @@
       <c r="S50" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
+      <c r="T50" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V50" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W50" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X50" s="38"/>
       <c r="Y50" s="38"/>
       <c r="Z50" s="38"/>
@@ -4709,11 +5061,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>21</v>
@@ -4754,10 +5106,18 @@
       <c r="S51" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
+      <c r="T51" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U51" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="W51" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X51" s="38"/>
       <c r="Y51" s="38"/>
       <c r="Z51" s="38"/>
@@ -4779,11 +5139,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>21</v>
@@ -4824,10 +5184,18 @@
       <c r="S52" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
+      <c r="T52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W52" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X52" s="38"/>
       <c r="Y52" s="38"/>
       <c r="Z52" s="38"/>
@@ -4853,7 +5221,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>21</v>
@@ -4894,10 +5262,18 @@
       <c r="S53" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
+      <c r="T53" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U53" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V53" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W53" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X53" s="38"/>
       <c r="Y53" s="38"/>
       <c r="Z53" s="38"/>
@@ -4919,11 +5295,11 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>21</v>
@@ -4964,10 +5340,18 @@
       <c r="S54" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
+      <c r="T54" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U54" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V54" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X54" s="38"/>
       <c r="Y54" s="38"/>
       <c r="Z54" s="38"/>
@@ -4993,7 +5377,7 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>21</v>
@@ -5034,10 +5418,18 @@
       <c r="S55" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
+      <c r="T55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W55" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X55" s="38"/>
       <c r="Y55" s="38"/>
       <c r="Z55" s="38"/>
@@ -5063,7 +5455,7 @@
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>21</v>
@@ -5104,10 +5496,18 @@
       <c r="S56" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="38"/>
+      <c r="T56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W56" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X56" s="38"/>
       <c r="Y56" s="38"/>
       <c r="Z56" s="38"/>
@@ -5129,11 +5529,11 @@
       </c>
       <c r="E57" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>21</v>
@@ -5174,10 +5574,18 @@
       <c r="S57" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="38"/>
+      <c r="T57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V57" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W57" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X57" s="38"/>
       <c r="Y57" s="38"/>
       <c r="Z57" s="38"/>
@@ -5203,7 +5611,7 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>21</v>
@@ -5244,10 +5652,18 @@
       <c r="S58" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
+      <c r="T58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V58" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W58" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X58" s="38"/>
       <c r="Y58" s="38"/>
       <c r="Z58" s="38"/>
@@ -5269,11 +5685,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>21</v>
@@ -5314,10 +5730,18 @@
       <c r="S59" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
+      <c r="T59" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U59" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V59" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W59" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X59" s="38"/>
       <c r="Y59" s="38"/>
       <c r="Z59" s="38"/>
@@ -5343,7 +5767,7 @@
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>21</v>
@@ -5384,10 +5808,18 @@
       <c r="S60" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="38"/>
+      <c r="T60" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U60" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V60" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W60" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X60" s="38"/>
       <c r="Y60" s="38"/>
       <c r="Z60" s="38"/>
@@ -5413,7 +5845,7 @@
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>20</v>
@@ -5454,10 +5886,18 @@
       <c r="S61" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
+      <c r="T61" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U61" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V61" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W61" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X61" s="38"/>
       <c r="Y61" s="38"/>
       <c r="Z61" s="38"/>
@@ -5479,11 +5919,11 @@
       </c>
       <c r="E62" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>21</v>
@@ -5524,10 +5964,18 @@
       <c r="S62" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
+      <c r="T62" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V62" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W62" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X62" s="38"/>
       <c r="Y62" s="38"/>
       <c r="Z62" s="38"/>
@@ -5549,11 +5997,11 @@
       </c>
       <c r="E63" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G63" s="36" t="s">
         <v>21</v>
@@ -5594,10 +6042,18 @@
       <c r="S63" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
+      <c r="T63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V63" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W63" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X63" s="38"/>
       <c r="Y63" s="38"/>
       <c r="Z63" s="38"/>
@@ -5623,7 +6079,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>20</v>
@@ -5664,10 +6120,18 @@
       <c r="S64" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
+      <c r="T64" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V64" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W64" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X64" s="38"/>
       <c r="Y64" s="38"/>
       <c r="Z64" s="38"/>
@@ -5693,7 +6157,7 @@
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>20</v>
@@ -5734,10 +6198,18 @@
       <c r="S65" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
+      <c r="T65" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U65" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V65" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W65" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X65" s="38"/>
       <c r="Y65" s="38"/>
       <c r="Z65" s="38"/>
@@ -5759,11 +6231,11 @@
       </c>
       <c r="E66" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>21</v>
@@ -5804,10 +6276,18 @@
       <c r="S66" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
+      <c r="T66" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U66" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V66" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W66" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X66" s="38"/>
       <c r="Y66" s="38"/>
       <c r="Z66" s="38"/>
@@ -5833,7 +6313,7 @@
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>20</v>
@@ -5874,10 +6354,18 @@
       <c r="S67" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
-      <c r="W67" s="38"/>
+      <c r="T67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W67" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X67" s="38"/>
       <c r="Y67" s="38"/>
       <c r="Z67" s="38"/>
@@ -5903,7 +6391,7 @@
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>21</v>
@@ -5944,10 +6432,18 @@
       <c r="S68" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
+      <c r="T68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W68" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X68" s="38"/>
       <c r="Y68" s="38"/>
       <c r="Z68" s="38"/>
@@ -5973,7 +6469,7 @@
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>20</v>
@@ -6014,10 +6510,18 @@
       <c r="S69" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
+      <c r="T69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W69" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X69" s="38"/>
       <c r="Y69" s="38"/>
       <c r="Z69" s="38"/>
@@ -6043,7 +6547,7 @@
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>21</v>
@@ -6084,10 +6588,18 @@
       <c r="S70" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
+      <c r="T70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W70" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X70" s="38"/>
       <c r="Y70" s="38"/>
       <c r="Z70" s="38"/>
@@ -6113,7 +6625,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>21</v>
@@ -6154,10 +6666,18 @@
       <c r="S71" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="38"/>
+      <c r="T71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V71" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W71" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X71" s="38"/>
       <c r="Y71" s="38"/>
       <c r="Z71" s="38"/>
@@ -6179,11 +6699,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>21</v>
@@ -6224,10 +6744,18 @@
       <c r="S72" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
+      <c r="T72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W72" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X72" s="38"/>
       <c r="Y72" s="38"/>
       <c r="Z72" s="38"/>
@@ -6249,11 +6777,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>21</v>
@@ -6294,10 +6822,18 @@
       <c r="S73" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="38"/>
-      <c r="W73" s="38"/>
+      <c r="T73" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="U73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W73" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X73" s="38"/>
       <c r="Y73" s="38"/>
       <c r="Z73" s="38"/>
@@ -6319,11 +6855,11 @@
       </c>
       <c r="E74" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>21</v>
@@ -6364,10 +6900,18 @@
       <c r="S74" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T74" s="38"/>
-      <c r="U74" s="38"/>
-      <c r="V74" s="38"/>
-      <c r="W74" s="38"/>
+      <c r="T74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V74" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W74" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X74" s="38"/>
       <c r="Y74" s="38"/>
       <c r="Z74" s="38"/>
@@ -6389,11 +6933,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>20</v>
@@ -6434,10 +6978,18 @@
       <c r="S75" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
+      <c r="T75" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U75" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="V75" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W75" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="X75" s="38"/>
       <c r="Y75" s="38"/>
       <c r="Z75" s="38"/>
@@ -6459,11 +7011,11 @@
       </c>
       <c r="E76" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>21</v>
@@ -6504,10 +7056,18 @@
       <c r="S76" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
+      <c r="T76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V76" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W76" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X76" s="38"/>
       <c r="Y76" s="38"/>
       <c r="Z76" s="38"/>
@@ -6529,11 +7089,11 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>21</v>
@@ -6574,10 +7134,18 @@
       <c r="S77" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
+      <c r="T77" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="U77" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V77" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W77" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="X77" s="38"/>
       <c r="Y77" s="38"/>
       <c r="Z77" s="38"/>
@@ -6613,7 +7181,7 @@
       <c r="R78" s="38"/>
       <c r="S78" s="38"/>
       <c r="T78" s="38"/>
-      <c r="U78" s="38"/>
+      <c r="U78" s="37"/>
       <c r="V78" s="38"/>
       <c r="W78" s="38"/>
       <c r="X78" s="38"/>
